--- a/dashboard.xlsx
+++ b/dashboard.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GamErick\Desktop\Nova pasta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4CE9BE-6DA6-41BC-A056-EFBC9A524B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="60" windowWidth="22932" windowHeight="9504" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Saude" sheetId="1" r:id="rId1"/>
     <sheet name="Paco" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sepol" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="71">
   <si>
     <t>JANEIRO</t>
   </si>
@@ -223,17 +229,23 @@
   </si>
   <si>
     <t>TRIBUTOS</t>
+  </si>
+  <si>
+    <t>nov/24</t>
+  </si>
+  <si>
+    <t>out/24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,7 +289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -385,23 +397,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -412,8 +413,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -424,20 +424,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -447,34 +445,42 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Separador de milhares" xfId="1" builtinId="3"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="32">
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -730,7 +736,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -776,10 +782,10 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -796,7 +802,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -856,56 +862,68 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela134" displayName="Tabela134" ref="A1:P8" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A1:P8"/>
-  <tableColumns count="16">
-    <tableColumn id="1" name="Impressora" dataDxfId="25"/>
-    <tableColumn id="2" name="Localidade" dataDxfId="24"/>
-    <tableColumn id="16" name="dez/24" dataDxfId="23" dataCellStyle="Separador de milhares"/>
-    <tableColumn id="3" name="JANEIRO" dataDxfId="22" dataCellStyle="Separador de milhares"/>
-    <tableColumn id="4" name="FEVEREIRO" dataDxfId="21" dataCellStyle="Separador de milhares"/>
-    <tableColumn id="5" name="MARÇO" dataDxfId="20"/>
-    <tableColumn id="6" name="ABRIL" dataDxfId="19"/>
-    <tableColumn id="7" name="MAIO" dataDxfId="18"/>
-    <tableColumn id="8" name="JUNHO" dataDxfId="17"/>
-    <tableColumn id="9" name="JULHO" dataDxfId="16"/>
-    <tableColumn id="10" name="AGOSTO" dataDxfId="15"/>
-    <tableColumn id="11" name="SETEMBRO" dataDxfId="14"/>
-    <tableColumn id="12" name="OUTUBRO" dataDxfId="13"/>
-    <tableColumn id="13" name="NOVEMBRO" dataDxfId="12"/>
-    <tableColumn id="14" name="DEZEMBRO" dataDxfId="11"/>
-    <tableColumn id="15" name="Total Ano" dataDxfId="10" dataCellStyle="Separador de milhares"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela134" displayName="Tabela134" ref="A1:R8" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29" totalsRowBorderDxfId="28">
+  <autoFilter ref="A1:R8" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Impressora" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Localidade" dataDxfId="26"/>
+    <tableColumn id="18" xr3:uid="{EDDF4E36-8316-49A5-89CB-8904AFF1A691}" name="out/24" dataDxfId="1" dataCellStyle="Vírgula"/>
+    <tableColumn id="17" xr3:uid="{C28FEAB0-417B-407D-B30D-07D7013E82D7}" name="nov/24" dataDxfId="2" dataCellStyle="Vírgula"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="dez/24" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="JANEIRO" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="FEVEREIRO" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="MARÇO" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="ABRIL" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="MAIO" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="JUNHO" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="JULHO" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="AGOSTO" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="SETEMBRO" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="OUTUBRO" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="NOVEMBRO" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="DEZEMBRO" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Total Ano" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:P39" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:P39">
-    <filterColumn colId="2"/>
-  </autoFilter>
-  <tableColumns count="16">
-    <tableColumn id="1" name="Impressora" dataDxfId="5"/>
-    <tableColumn id="2" name="Localidade" dataDxfId="4"/>
-    <tableColumn id="16" name="dez/24" dataDxfId="2" dataCellStyle="Separador de milhares"/>
-    <tableColumn id="3" name="JANEIRO" dataDxfId="1" dataCellStyle="Separador de milhares"/>
-    <tableColumn id="4" name="FEVEREIRO" dataDxfId="0" dataCellStyle="Separador de milhares"/>
-    <tableColumn id="5" name="MARÇO"/>
-    <tableColumn id="6" name="ABRIL"/>
-    <tableColumn id="7" name="MAIO"/>
-    <tableColumn id="8" name="JUNHO"/>
-    <tableColumn id="9" name="JULHO"/>
-    <tableColumn id="10" name="AGOSTO"/>
-    <tableColumn id="11" name="SETEMBRO"/>
-    <tableColumn id="12" name="OUTUBRO"/>
-    <tableColumn id="13" name="NOVEMBRO"/>
-    <tableColumn id="14" name="DEZEMBRO"/>
-    <tableColumn id="15" name="Total Ano" dataDxfId="3" dataCellStyle="Separador de milhares"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela13" displayName="Tabela13" ref="A1:R39" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:R39" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Impressora" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Localidade" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{9CA8177F-42AE-45FA-95A5-DB2BE3F958B2}" name="out/24"/>
+    <tableColumn id="17" xr3:uid="{0AFF1354-2AFA-451F-AB54-0ADBEA9D8CDC}" name="nov/24"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="dez/24" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="JANEIRO" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="FEVEREIRO" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="MARÇO"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="ABRIL"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="MAIO"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="JUNHO"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="JULHO"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="AGOSTO"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="SETEMBRO"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="OUTUBRO"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="NOVEMBRO"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="DEZEMBRO"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Total Ano" dataDxfId="0">
+      <calculatedColumnFormula>SUM(F2:Q2)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -914,7 +932,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -952,9 +970,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -986,9 +1004,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1020,9 +1056,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1195,100 +1249,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="R1" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="20">
+        <v>7702</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6286</v>
+      </c>
+      <c r="E2" s="2">
         <v>6884</v>
       </c>
-      <c r="D2" s="2">
+      <c r="F2" s="2">
         <v>9386</v>
       </c>
-      <c r="E2" s="5">
+      <c r="G2" s="5">
         <v>7115</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -1297,16 +1363,18 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="17">
-        <f>SUM(D2:O2)</f>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="15">
+        <f>SUM(F2:Q2)</f>
         <v>16501</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1315,11 +1383,15 @@
       <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -1328,29 +1400,35 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="17">
-        <f t="shared" ref="P3:P5" si="0">SUM(D3:O3)</f>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="15">
+        <f t="shared" ref="R3:R8" si="0">SUM(F3:Q3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1041</v>
+      </c>
+      <c r="E4" s="2">
         <v>3080</v>
       </c>
-      <c r="D4" s="2">
+      <c r="F4" s="2">
         <v>7174</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="G4" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -1359,29 +1437,35 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="17">
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="15">
         <f t="shared" si="0"/>
         <v>7174</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1584</v>
+      </c>
+      <c r="E5" s="2">
         <v>6225</v>
       </c>
-      <c r="D5" s="2">
+      <c r="F5" s="2">
         <v>7916</v>
       </c>
-      <c r="E5" s="5">
+      <c r="G5" s="5">
         <v>12602</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -1390,29 +1474,35 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="P5" s="17">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="15">
         <f t="shared" si="0"/>
         <v>20518</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1555</v>
+      </c>
+      <c r="E6" s="2">
         <v>7393</v>
       </c>
-      <c r="D6" s="2">
+      <c r="F6" s="2">
         <v>8874</v>
       </c>
-      <c r="E6" s="5">
+      <c r="G6" s="5">
         <v>9532</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1421,26 +1511,35 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="17"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="15">
+        <f t="shared" si="0"/>
+        <v>18406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2">
+        <v>340</v>
+      </c>
+      <c r="E7" s="2">
         <v>2482</v>
       </c>
-      <c r="D7" s="2">
+      <c r="F7" s="2">
         <v>2763</v>
       </c>
-      <c r="E7" s="5">
+      <c r="G7" s="5">
         <v>2868</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -1449,13 +1548,18 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="17"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="13" t="s">
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="15">
+        <f t="shared" si="0"/>
+        <v>5631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1464,31 +1568,42 @@
       <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="18"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="E9" s="3"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="E10" s="3"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2">
+        <v>9500</v>
+      </c>
+      <c r="G8" s="13">
+        <v>8128</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="15">
+        <f t="shared" si="0"/>
+        <v>17628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G9" s="3"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G10" s="3"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1499,778 +1614,1114 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.77734375" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.77734375" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="25"/>
+    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="F1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="G1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="R1" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2">
+        <v>1468</v>
+      </c>
+      <c r="D2">
+        <v>6368</v>
+      </c>
+      <c r="E2" s="20">
         <v>3116</v>
       </c>
-      <c r="D2" s="2">
+      <c r="F2" s="2">
         <v>6048</v>
       </c>
-      <c r="E2" s="2">
+      <c r="G2" s="2">
         <v>4448</v>
       </c>
-      <c r="P2" s="23">
-        <f>SUM(D2:O2)</f>
+      <c r="R2" s="20">
+        <f t="shared" ref="R2:R39" si="0">SUM(F2:Q2)</f>
         <v>10496</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="23">
-        <f t="shared" ref="P3:P5" si="0">SUM(D3:O3)</f>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="23">
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="26" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>2624</v>
+      </c>
+      <c r="E5" s="20">
         <v>2841</v>
       </c>
-      <c r="D5" s="2">
+      <c r="F5" s="2">
         <v>3727</v>
       </c>
-      <c r="E5" s="2">
+      <c r="G5" s="2">
         <v>3903</v>
       </c>
-      <c r="P5" s="23">
+      <c r="R5" s="20">
         <f t="shared" si="0"/>
         <v>7630</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P6" s="23"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="26" t="s">
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>2765</v>
+      </c>
+      <c r="E7" s="20">
         <v>3383</v>
       </c>
-      <c r="D7" s="2">
+      <c r="F7" s="2">
         <v>3109</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>3209</v>
       </c>
-      <c r="P7" s="23"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="26" t="s">
+      <c r="R7" s="20">
+        <f t="shared" si="0"/>
+        <v>6318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>2025</v>
+      </c>
+      <c r="E8" s="20">
         <v>2528</v>
       </c>
-      <c r="D8" s="2">
+      <c r="F8" s="2">
         <v>3306</v>
       </c>
-      <c r="E8" s="2">
+      <c r="G8" s="2">
         <v>3683</v>
       </c>
-      <c r="P8" s="23"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="26" t="s">
+      <c r="R8" s="20">
+        <f t="shared" si="0"/>
+        <v>6989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9">
+        <v>175</v>
+      </c>
+      <c r="D9">
+        <v>6341</v>
+      </c>
+      <c r="E9" s="20">
         <v>18320</v>
       </c>
-      <c r="D9" s="2">
+      <c r="F9" s="2">
         <v>9230</v>
       </c>
-      <c r="E9" s="2">
+      <c r="G9" s="2">
         <v>2895</v>
       </c>
-      <c r="P9" s="23"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="26" t="s">
+      <c r="R9" s="20">
+        <f t="shared" si="0"/>
+        <v>12125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P10" s="23"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="26" t="s">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="2">
         <v>2408</v>
       </c>
-      <c r="P11" s="23"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="26" t="s">
+      <c r="R11" s="20">
+        <f t="shared" si="0"/>
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" s="23"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="26" t="s">
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P13" s="23"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="26" t="s">
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14">
+        <v>2007</v>
+      </c>
+      <c r="D14">
+        <v>9949</v>
+      </c>
+      <c r="E14" s="20">
         <v>8128</v>
       </c>
-      <c r="D14" s="2">
+      <c r="F14" s="2">
         <v>12603</v>
       </c>
-      <c r="E14" s="2">
+      <c r="G14" s="2">
         <v>11714</v>
       </c>
-      <c r="P14" s="23"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="26" t="s">
+      <c r="R14" s="20">
+        <f t="shared" si="0"/>
+        <v>24317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="2">
         <v>49</v>
       </c>
-      <c r="P15" s="23"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="26" t="s">
+      <c r="R15" s="20">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>2482</v>
+      </c>
+      <c r="E16" s="20">
         <v>3610</v>
       </c>
-      <c r="D16" s="2">
+      <c r="F16" s="2">
         <v>4624</v>
       </c>
-      <c r="E16" s="2">
+      <c r="G16" s="2">
         <v>5247</v>
       </c>
-      <c r="P16" s="23"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="26" t="s">
+      <c r="R16" s="20">
+        <f t="shared" si="0"/>
+        <v>9871</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>154</v>
+      </c>
+      <c r="E17" s="20">
         <v>139</v>
       </c>
-      <c r="D17" s="2">
+      <c r="F17" s="2">
         <v>617</v>
       </c>
-      <c r="E17" s="2">
+      <c r="G17" s="2">
         <v>219</v>
       </c>
-      <c r="P17" s="23"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="26" t="s">
+      <c r="R17" s="20">
+        <f t="shared" si="0"/>
+        <v>836</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P18" s="23"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="26" t="s">
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P19" s="23"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="26" t="s">
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R19" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P20" s="23"/>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="26" t="s">
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R20" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P21" s="23"/>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="26" t="s">
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R21" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P22" s="23"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="26" t="s">
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R22" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="2">
         <v>215</v>
       </c>
-      <c r="P23" s="23"/>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="26" t="s">
+      <c r="R23" s="20">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>1625</v>
+      </c>
+      <c r="E24" s="20">
         <v>2283</v>
       </c>
-      <c r="D24" s="2">
+      <c r="F24" s="2">
         <v>2518</v>
       </c>
-      <c r="E24" s="2">
+      <c r="G24" s="2">
         <v>1681</v>
       </c>
-      <c r="P24" s="23"/>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="26" t="s">
+      <c r="R24" s="20">
+        <f t="shared" si="0"/>
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25">
+        <v>493</v>
+      </c>
+      <c r="E25" s="20">
         <v>286</v>
       </c>
-      <c r="D25" s="2">
+      <c r="F25" s="2">
         <v>958</v>
       </c>
-      <c r="E25" s="2">
+      <c r="G25" s="2">
         <v>832</v>
       </c>
-      <c r="P25" s="23"/>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="26" t="s">
+      <c r="R25" s="20">
+        <f t="shared" si="0"/>
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26">
+        <v>327</v>
+      </c>
+      <c r="D26">
+        <v>1996</v>
+      </c>
+      <c r="E26" s="20">
         <v>8067</v>
       </c>
-      <c r="D26" s="2">
+      <c r="F26" s="2">
         <v>2704</v>
       </c>
-      <c r="E26" s="2">
+      <c r="G26" s="2">
         <v>2080</v>
       </c>
-      <c r="P26" s="23"/>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="26" t="s">
+      <c r="R26" s="20">
+        <f t="shared" si="0"/>
+        <v>4784</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P27" s="23"/>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="26" t="s">
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R27" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28">
+        <v>1411</v>
+      </c>
+      <c r="E28" s="20">
         <v>1217</v>
       </c>
-      <c r="D28" s="2">
+      <c r="F28" s="2">
         <v>1452</v>
       </c>
-      <c r="E28" s="2">
+      <c r="G28" s="2">
         <v>1714</v>
       </c>
-      <c r="P28" s="23"/>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="26" t="s">
+      <c r="R28" s="20">
+        <f t="shared" si="0"/>
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29">
+        <v>2838</v>
+      </c>
+      <c r="E29" s="20">
         <v>4841</v>
       </c>
-      <c r="D29" s="2">
+      <c r="F29" s="2">
         <v>3634</v>
       </c>
-      <c r="E29" s="2">
+      <c r="G29" s="2">
         <v>5496</v>
       </c>
-      <c r="P29" s="23"/>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="26" t="s">
+      <c r="R29" s="20">
+        <f t="shared" si="0"/>
+        <v>9130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="2">
         <v>405</v>
       </c>
-      <c r="E30" s="2">
+      <c r="G30" s="2">
         <v>1886</v>
       </c>
-      <c r="P30" s="23"/>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="26" t="s">
+      <c r="R30" s="20">
+        <f t="shared" si="0"/>
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31">
+        <v>565</v>
+      </c>
+      <c r="D31">
+        <v>2998</v>
+      </c>
+      <c r="E31" s="20">
         <v>2715</v>
       </c>
-      <c r="D31" s="2">
+      <c r="F31" s="2">
         <v>2650</v>
       </c>
-      <c r="E31" s="2">
+      <c r="G31" s="2">
         <v>1389</v>
       </c>
-      <c r="P31" s="23"/>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="26" t="s">
+      <c r="R31" s="20">
+        <f t="shared" si="0"/>
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>328</v>
+      </c>
+      <c r="E32" s="20">
         <v>286</v>
       </c>
-      <c r="D32" s="2">
+      <c r="F32" s="2">
         <v>356</v>
       </c>
-      <c r="E32" s="2">
+      <c r="G32" s="2">
         <v>550</v>
       </c>
-      <c r="P32" s="23"/>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="26" t="s">
+      <c r="R32" s="20">
+        <f t="shared" si="0"/>
+        <v>906</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33">
+        <v>271</v>
+      </c>
+      <c r="D33">
+        <v>1867</v>
+      </c>
+      <c r="E33" s="20">
         <v>2643</v>
       </c>
-      <c r="D33" s="2">
+      <c r="F33" s="2">
         <v>2057</v>
       </c>
-      <c r="E33" s="2">
+      <c r="G33" s="2">
         <v>2967</v>
       </c>
-      <c r="P33" s="23"/>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="26" t="s">
+      <c r="R33" s="20">
+        <f t="shared" si="0"/>
+        <v>5024</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34">
+        <v>1011</v>
+      </c>
+      <c r="D34">
+        <v>3912</v>
+      </c>
+      <c r="E34" s="20">
         <v>5361</v>
       </c>
-      <c r="D34" s="2">
+      <c r="F34" s="2">
         <v>5299</v>
       </c>
-      <c r="E34" s="2">
+      <c r="G34" s="2">
         <v>5697</v>
       </c>
-      <c r="P34" s="23"/>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="26" t="s">
+      <c r="R34" s="20">
+        <f t="shared" si="0"/>
+        <v>10996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P35" s="23"/>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="26" t="s">
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R35" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36">
+        <v>1650</v>
+      </c>
+      <c r="E36" s="20">
         <v>1776</v>
       </c>
-      <c r="D36" s="2">
+      <c r="F36" s="2">
         <v>2354</v>
       </c>
-      <c r="E36" s="2">
+      <c r="G36" s="2">
         <v>2255</v>
       </c>
-      <c r="P36" s="23"/>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="26" t="s">
+      <c r="R36" s="20">
+        <f t="shared" si="0"/>
+        <v>4609</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37">
+        <v>472</v>
+      </c>
+      <c r="D37">
+        <v>4138</v>
+      </c>
+      <c r="E37" s="20">
         <v>5383</v>
       </c>
-      <c r="D37" s="2">
+      <c r="F37" s="2">
         <v>3869</v>
       </c>
-      <c r="E37" s="2">
+      <c r="G37" s="2">
         <v>2704</v>
       </c>
-      <c r="P37" s="23"/>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="26" t="s">
+      <c r="R37" s="20">
+        <f t="shared" si="0"/>
+        <v>6573</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38">
+        <v>2807</v>
+      </c>
+      <c r="D38">
+        <v>3547</v>
+      </c>
+      <c r="E38" s="20">
         <v>3811</v>
       </c>
-      <c r="D38" s="2">
+      <c r="F38" s="2">
         <v>22117</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>9296</v>
       </c>
-      <c r="P38" s="23"/>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="26" t="s">
+      <c r="R38" s="20">
+        <f t="shared" si="0"/>
+        <v>31413</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="23">
+      <c r="C39">
+        <v>751</v>
+      </c>
+      <c r="D39">
+        <v>2952</v>
+      </c>
+      <c r="E39" s="20">
         <v>1808</v>
       </c>
-      <c r="D39" s="2">
+      <c r="F39" s="2">
         <v>22743</v>
       </c>
-      <c r="E39" s="2">
+      <c r="G39" s="2">
         <v>7568</v>
       </c>
-      <c r="P39" s="23"/>
+      <c r="R39" s="20">
+        <f t="shared" si="0"/>
+        <v>30311</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2281,12 +2732,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/dashboard.xlsx
+++ b/dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GamErick\Desktop\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4CE9BE-6DA6-41BC-A056-EFBC9A524B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBE2322-ED62-49E9-9666-DB910B98B2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Saude" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="77">
   <si>
     <t>JANEIRO</t>
   </si>
@@ -235,6 +235,24 @@
   </si>
   <si>
     <t>out/24</t>
+  </si>
+  <si>
+    <t>U67030J3N175295</t>
+  </si>
+  <si>
+    <t>F_SUBPREFEITURA IGUABINHA</t>
+  </si>
+  <si>
+    <t>U67030J3N175291</t>
+  </si>
+  <si>
+    <t>F_CASA AGRICULTURA CAD INCRA</t>
+  </si>
+  <si>
+    <t>U67030H3N150832</t>
+  </si>
+  <si>
+    <t>F_CASA AGRICULTURA ADM</t>
   </si>
 </sst>
 </file>
@@ -402,7 +420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -446,7 +464,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="17" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -454,13 +477,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
+  <dxfs count="40">
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -470,14 +487,80 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -785,6 +868,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -874,43 +963,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela134" displayName="Tabela134" ref="A1:R8" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29" totalsRowBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela134" displayName="Tabela134" ref="A1:R8" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <autoFilter ref="A1:R8" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Impressora" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Localidade" dataDxfId="26"/>
-    <tableColumn id="18" xr3:uid="{EDDF4E36-8316-49A5-89CB-8904AFF1A691}" name="out/24" dataDxfId="1" dataCellStyle="Vírgula"/>
-    <tableColumn id="17" xr3:uid="{C28FEAB0-417B-407D-B30D-07D7013E82D7}" name="nov/24" dataDxfId="2" dataCellStyle="Vírgula"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="dez/24" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="JANEIRO" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="FEVEREIRO" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="MARÇO" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="ABRIL" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="MAIO" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="JUNHO" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="JULHO" dataDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="AGOSTO" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="SETEMBRO" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="OUTUBRO" dataDxfId="15"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="NOVEMBRO" dataDxfId="14"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="DEZEMBRO" dataDxfId="13"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Total Ano" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Impressora" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Localidade" dataDxfId="34"/>
+    <tableColumn id="18" xr3:uid="{EDDF4E36-8316-49A5-89CB-8904AFF1A691}" name="out/24" dataDxfId="33" dataCellStyle="Vírgula"/>
+    <tableColumn id="17" xr3:uid="{C28FEAB0-417B-407D-B30D-07D7013E82D7}" name="nov/24" dataDxfId="32" dataCellStyle="Vírgula"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="dez/24" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="JANEIRO" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="FEVEREIRO" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="MARÇO" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="ABRIL" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="MAIO" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="JUNHO" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="JULHO" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="AGOSTO" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="SETEMBRO" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="OUTUBRO" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="NOVEMBRO" dataDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="DEZEMBRO" dataDxfId="19"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Total Ano" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela13" displayName="Tabela13" ref="A1:R39" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="A1:R39" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela13" displayName="Tabela13" ref="A1:R42" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A1:R42" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Impressora" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Localidade" dataDxfId="6"/>
-    <tableColumn id="18" xr3:uid="{9CA8177F-42AE-45FA-95A5-DB2BE3F958B2}" name="out/24"/>
-    <tableColumn id="17" xr3:uid="{0AFF1354-2AFA-451F-AB54-0ADBEA9D8CDC}" name="nov/24"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="dez/24" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="JANEIRO" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="FEVEREIRO" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Impressora" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Localidade" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{9CA8177F-42AE-45FA-95A5-DB2BE3F958B2}" name="out/24" dataDxfId="2" dataCellStyle="Vírgula"/>
+    <tableColumn id="17" xr3:uid="{0AFF1354-2AFA-451F-AB54-0ADBEA9D8CDC}" name="nov/24" dataDxfId="0" dataCellStyle="Vírgula"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="dez/24" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="JANEIRO" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="FEVEREIRO" dataDxfId="11"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="MARÇO"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="ABRIL"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="MAIO"/>
@@ -921,7 +1010,7 @@
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="OUTUBRO"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="NOVEMBRO"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="DEZEMBRO"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Total Ano" dataDxfId="0">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Total Ano" dataDxfId="10">
       <calculatedColumnFormula>SUM(F2:Q2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1252,7 +1341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -1615,17 +1704,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R39"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5546875" style="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.77734375" style="20" bestFit="1" customWidth="1"/>
@@ -1648,10 +1737,10 @@
       <c r="B1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="26" t="s">
         <v>69</v>
       </c>
       <c r="E1" s="19" t="s">
@@ -1704,10 +1793,10 @@
       <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>1468</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>6368</v>
       </c>
       <c r="E2" s="20">
@@ -1731,10 +1820,10 @@
       <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="20" t="s">
@@ -1758,10 +1847,10 @@
       <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="20" t="s">
@@ -1785,10 +1874,10 @@
       <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2">
         <v>2624</v>
       </c>
       <c r="E5" s="20">
@@ -1812,10 +1901,10 @@
       <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="20" t="s">
@@ -1839,10 +1928,10 @@
       <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2">
         <v>2765</v>
       </c>
       <c r="E7" s="20">
@@ -1866,10 +1955,10 @@
       <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2">
         <v>2025</v>
       </c>
       <c r="E8" s="20">
@@ -1893,10 +1982,10 @@
       <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>175</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>6341</v>
       </c>
       <c r="E9" s="20">
@@ -1920,10 +2009,10 @@
       <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="20" t="s">
@@ -1947,10 +2036,10 @@
       <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="20" t="s">
@@ -1974,10 +2063,10 @@
       <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="20" t="s">
@@ -2001,10 +2090,10 @@
       <c r="B13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -2028,10 +2117,10 @@
       <c r="B14" t="s">
         <v>41</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>2007</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>9949</v>
       </c>
       <c r="E14" s="20">
@@ -2055,10 +2144,10 @@
       <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="20" t="s">
@@ -2082,10 +2171,10 @@
       <c r="B16" t="s">
         <v>43</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2">
         <v>2482</v>
       </c>
       <c r="E16" s="20">
@@ -2109,10 +2198,10 @@
       <c r="B17" t="s">
         <v>44</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="2">
         <v>154</v>
       </c>
       <c r="E17" s="20">
@@ -2136,10 +2225,10 @@
       <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E18" s="20" t="s">
@@ -2163,10 +2252,10 @@
       <c r="B19" t="s">
         <v>47</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="20" t="s">
@@ -2190,10 +2279,10 @@
       <c r="B20" t="s">
         <v>49</v>
       </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E20" s="20" t="s">
@@ -2217,10 +2306,10 @@
       <c r="B21" t="s">
         <v>51</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E21" s="20" t="s">
@@ -2244,10 +2333,10 @@
       <c r="B22" t="s">
         <v>52</v>
       </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="20" t="s">
@@ -2271,10 +2360,10 @@
       <c r="B23" t="s">
         <v>53</v>
       </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="20" t="s">
@@ -2298,10 +2387,10 @@
       <c r="B24" t="s">
         <v>54</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24">
+      <c r="C24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="2">
         <v>1625</v>
       </c>
       <c r="E24" s="20">
@@ -2325,10 +2414,10 @@
       <c r="B25" t="s">
         <v>55</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="2">
         <v>493</v>
       </c>
       <c r="E25" s="20">
@@ -2352,10 +2441,10 @@
       <c r="B26" t="s">
         <v>56</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>327</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>1996</v>
       </c>
       <c r="E26" s="20">
@@ -2379,10 +2468,10 @@
       <c r="B27" t="s">
         <v>57</v>
       </c>
-      <c r="C27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E27" s="20" t="s">
@@ -2406,10 +2495,10 @@
       <c r="B28" t="s">
         <v>58</v>
       </c>
-      <c r="C28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28">
+      <c r="C28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="2">
         <v>1411</v>
       </c>
       <c r="E28" s="20">
@@ -2433,10 +2522,10 @@
       <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="C29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29">
+      <c r="C29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="2">
         <v>2838</v>
       </c>
       <c r="E29" s="20">
@@ -2460,10 +2549,10 @@
       <c r="B30" t="s">
         <v>60</v>
       </c>
-      <c r="C30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E30" s="20" t="s">
@@ -2487,10 +2576,10 @@
       <c r="B31" t="s">
         <v>61</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>565</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>2998</v>
       </c>
       <c r="E31" s="20">
@@ -2514,10 +2603,10 @@
       <c r="B32" t="s">
         <v>62</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>7</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>328</v>
       </c>
       <c r="E32" s="20">
@@ -2541,10 +2630,10 @@
       <c r="B33" t="s">
         <v>63</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>271</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>1867</v>
       </c>
       <c r="E33" s="20">
@@ -2568,10 +2657,10 @@
       <c r="B34" t="s">
         <v>64</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>1011</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>3912</v>
       </c>
       <c r="E34" s="20">
@@ -2595,10 +2684,10 @@
       <c r="B35" t="s">
         <v>65</v>
       </c>
-      <c r="C35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="20" t="s">
@@ -2622,10 +2711,10 @@
       <c r="B36" t="s">
         <v>66</v>
       </c>
-      <c r="C36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36">
+      <c r="C36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="2">
         <v>1650</v>
       </c>
       <c r="E36" s="20">
@@ -2649,10 +2738,10 @@
       <c r="B37" t="s">
         <v>67</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>472</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>4138</v>
       </c>
       <c r="E37" s="20">
@@ -2676,10 +2765,10 @@
       <c r="B38" t="s">
         <v>68</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
         <v>2807</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>3547</v>
       </c>
       <c r="E38" s="20">
@@ -2703,10 +2792,10 @@
       <c r="B39" t="s">
         <v>68</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>751</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>2952</v>
       </c>
       <c r="E39" s="20">
@@ -2723,7 +2812,99 @@
         <v>30311</v>
       </c>
     </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" t="s">
+        <v>25</v>
+      </c>
+      <c r="R40" s="24">
+        <f t="shared" ref="R40:R42" si="1">SUM(F40:Q40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" t="s">
+        <v>25</v>
+      </c>
+      <c r="R41" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" t="s">
+        <v>25</v>
+      </c>
+      <c r="R42" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A40:A42">
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40:B42">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"MANUTENÇÃO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"DEPOSITO SOLAGOS"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -2735,7 +2916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>

--- a/dashboard.xlsx
+++ b/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GamErick\Desktop\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBE2322-ED62-49E9-9666-DB910B98B2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A94EAA-98D3-4AC2-9D83-1F08F474F045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="74">
   <si>
     <t>JANEIRO</t>
   </si>
@@ -237,19 +237,10 @@
     <t>out/24</t>
   </si>
   <si>
-    <t>U67030J3N175295</t>
-  </si>
-  <si>
     <t>F_SUBPREFEITURA IGUABINHA</t>
   </si>
   <si>
-    <t>U67030J3N175291</t>
-  </si>
-  <si>
     <t>F_CASA AGRICULTURA CAD INCRA</t>
-  </si>
-  <si>
-    <t>U67030H3N150832</t>
   </si>
   <si>
     <t>F_CASA AGRICULTURA ADM</t>
@@ -420,7 +411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -464,7 +455,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -472,12 +462,14 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="36">
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -487,9 +479,65 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -512,102 +560,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -785,7 +737,8 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -798,8 +751,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -963,43 +914,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela134" displayName="Tabela134" ref="A1:R8" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela134" displayName="Tabela134" ref="A1:R8" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
   <autoFilter ref="A1:R8" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Impressora" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Localidade" dataDxfId="34"/>
-    <tableColumn id="18" xr3:uid="{EDDF4E36-8316-49A5-89CB-8904AFF1A691}" name="out/24" dataDxfId="33" dataCellStyle="Vírgula"/>
-    <tableColumn id="17" xr3:uid="{C28FEAB0-417B-407D-B30D-07D7013E82D7}" name="nov/24" dataDxfId="32" dataCellStyle="Vírgula"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="dez/24" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="JANEIRO" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="FEVEREIRO" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="MARÇO" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="ABRIL" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="MAIO" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="JUNHO" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="JULHO" dataDxfId="24"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="AGOSTO" dataDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="SETEMBRO" dataDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="OUTUBRO" dataDxfId="21"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="NOVEMBRO" dataDxfId="20"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="DEZEMBRO" dataDxfId="19"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Total Ano" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Impressora" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Localidade" dataDxfId="30"/>
+    <tableColumn id="18" xr3:uid="{EDDF4E36-8316-49A5-89CB-8904AFF1A691}" name="out/24" dataDxfId="29" dataCellStyle="Vírgula"/>
+    <tableColumn id="17" xr3:uid="{C28FEAB0-417B-407D-B30D-07D7013E82D7}" name="nov/24" dataDxfId="28" dataCellStyle="Vírgula"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="dez/24" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="JANEIRO" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="FEVEREIRO" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="MARÇO" dataDxfId="24" dataCellStyle="Vírgula"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="ABRIL" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="MAIO" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="JUNHO" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="JULHO" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="AGOSTO" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="SETEMBRO" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="OUTUBRO" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="NOVEMBRO" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="DEZEMBRO" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Total Ano" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela13" displayName="Tabela13" ref="A1:R42" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="A1:R42" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela13" displayName="Tabela13" ref="A1:R43" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:R43" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Impressora" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Localidade" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{9CA8177F-42AE-45FA-95A5-DB2BE3F958B2}" name="out/24" dataDxfId="2" dataCellStyle="Vírgula"/>
-    <tableColumn id="17" xr3:uid="{0AFF1354-2AFA-451F-AB54-0ADBEA9D8CDC}" name="nov/24" dataDxfId="0" dataCellStyle="Vírgula"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="dez/24" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="JANEIRO" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="FEVEREIRO" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Impressora" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Localidade" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{9CA8177F-42AE-45FA-95A5-DB2BE3F958B2}" name="out/24" dataDxfId="5" dataCellStyle="Vírgula"/>
+    <tableColumn id="17" xr3:uid="{0AFF1354-2AFA-451F-AB54-0ADBEA9D8CDC}" name="nov/24" dataDxfId="4" dataCellStyle="Vírgula"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="dez/24" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="JANEIRO" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="FEVEREIRO" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="MARÇO"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="ABRIL"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="MAIO"/>
@@ -1010,7 +961,7 @@
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="OUTUBRO"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="NOVEMBRO"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="DEZEMBRO"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Total Ano" dataDxfId="10">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Total Ano" dataDxfId="0">
       <calculatedColumnFormula>SUM(F2:Q2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1342,7 +1293,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1354,7 +1305,7 @@
     <col min="5" max="5" width="11.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -1388,7 +1339,7 @@
       <c r="G1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="9" t="s">
@@ -1444,7 +1395,7 @@
       <c r="G2" s="5">
         <v>7115</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="26"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -1481,7 +1432,7 @@
       <c r="G3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1518,7 +1469,7 @@
       <c r="G4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -1555,7 +1506,7 @@
       <c r="G5" s="5">
         <v>12602</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="26"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -1592,7 +1543,9 @@
       <c r="G6" s="5">
         <v>9532</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="26">
+        <v>2911</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -1604,7 +1557,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="15">
         <f t="shared" si="0"/>
-        <v>18406</v>
+        <v>21317</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -1629,7 +1582,7 @@
       <c r="G7" s="5">
         <v>2868</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -1666,7 +1619,7 @@
       <c r="G8" s="13">
         <v>8128</v>
       </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="27"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
@@ -1704,10 +1657,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1737,10 +1690,10 @@
       <c r="B1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>69</v>
       </c>
       <c r="E1" s="19" t="s">
@@ -2813,38 +2766,38 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40" s="23" t="s">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B40" s="25" t="s">
-        <v>72</v>
-      </c>
       <c r="C40" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E40" t="s">
-        <v>25</v>
-      </c>
-      <c r="F40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" t="s">
-        <v>25</v>
-      </c>
-      <c r="R40" s="24">
+      <c r="E40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R40" s="23">
         <f t="shared" ref="R40:R42" si="1">SUM(F40:Q40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>74</v>
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>72</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>25</v>
@@ -2852,7 +2805,7 @@
       <c r="D41" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F41" t="s">
@@ -2861,17 +2814,17 @@
       <c r="G41" t="s">
         <v>25</v>
       </c>
-      <c r="R41" s="24">
+      <c r="R41" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>76</v>
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>25</v>
@@ -2879,35 +2832,60 @@
       <c r="D42" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E42" t="s">
-        <v>25</v>
-      </c>
-      <c r="F42" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" t="s">
-        <v>25</v>
-      </c>
-      <c r="R42" s="24">
+      <c r="E42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R42" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R43" s="23">
+        <f>SUM(F43:Q43)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A40:A42">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B40:B42">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"MANUTENÇÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"DEPOSITO SOLAGOS"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/dashboard.xlsx
+++ b/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GamErick\Desktop\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A94EAA-98D3-4AC2-9D83-1F08F474F045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23EF293-9FD7-42E4-A9A4-94AFD203BC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="75">
   <si>
     <t>JANEIRO</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>F_CASA AGRICULTURA ADM</t>
+  </si>
+  <si>
+    <t>LABORATÓRIO ARARUAMA</t>
   </si>
 </sst>
 </file>
@@ -254,7 +257,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +286,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -298,7 +307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -406,18 +415,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -464,6 +481,11 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -914,8 +936,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela134" displayName="Tabela134" ref="A1:R8" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
-  <autoFilter ref="A1:R8" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela134" displayName="Tabela134" ref="A1:R10" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
+  <autoFilter ref="A1:R10" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Impressora" dataDxfId="31"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Localidade" dataDxfId="30"/>
@@ -1293,7 +1315,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1318,69 +1340,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="19">
         <v>7702</v>
       </c>
       <c r="D2" s="2">
@@ -1392,29 +1414,29 @@
       <c r="F2" s="2">
         <v>9386</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>7115</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="15">
+      <c r="H2" s="25"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="14">
         <f>SUM(F2:Q2)</f>
         <v>16501</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1429,29 +1451,29 @@
       <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="15">
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="25"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="14">
         <f t="shared" ref="R3:R8" si="0">SUM(F3:Q3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1466,29 +1488,29 @@
       <c r="F4" s="2">
         <v>7174</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="15">
+      <c r="G4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="25"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="14">
         <f t="shared" si="0"/>
         <v>7174</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1503,29 +1525,29 @@
       <c r="F5" s="2">
         <v>7916</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>12602</v>
       </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="15">
+      <c r="H5" s="25"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="14">
         <f t="shared" si="0"/>
         <v>20518</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1540,31 +1562,31 @@
       <c r="F6" s="2">
         <v>8874</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>9532</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="25">
         <v>2911</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="15">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="14">
         <f t="shared" si="0"/>
         <v>21317</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1579,29 +1601,29 @@
       <c r="F7" s="2">
         <v>2763</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>2868</v>
       </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="15">
+      <c r="H7" s="25"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="14">
         <f t="shared" si="0"/>
         <v>5631</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1616,36 +1638,77 @@
       <c r="F8" s="2">
         <v>9500</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>8128</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="15">
+      <c r="H8" s="26"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="14">
         <f t="shared" si="0"/>
         <v>17628</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G9" s="3"/>
-      <c r="R9" s="2"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="29"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G10" s="3"/>
-      <c r="R10" s="2"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="3"/>
+      <c r="E10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="14"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1668,9 +1731,9 @@
     <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
@@ -1684,25 +1747,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="H1" t="s">
@@ -1735,7 +1798,7 @@
       <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="19" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1752,7 +1815,7 @@
       <c r="D2" s="2">
         <v>6368</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="19">
         <v>3116</v>
       </c>
       <c r="F2" s="2">
@@ -1761,7 +1824,7 @@
       <c r="G2" s="2">
         <v>4448</v>
       </c>
-      <c r="R2" s="20">
+      <c r="R2" s="19">
         <f t="shared" ref="R2:R39" si="0">SUM(F2:Q2)</f>
         <v>10496</v>
       </c>
@@ -1779,7 +1842,7 @@
       <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1788,7 +1851,7 @@
       <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="20">
+      <c r="R3" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1806,7 +1869,7 @@
       <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1815,7 +1878,7 @@
       <c r="G4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="20">
+      <c r="R4" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1833,7 +1896,7 @@
       <c r="D5" s="2">
         <v>2624</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>2841</v>
       </c>
       <c r="F5" s="2">
@@ -1842,7 +1905,7 @@
       <c r="G5" s="2">
         <v>3903</v>
       </c>
-      <c r="R5" s="20">
+      <c r="R5" s="19">
         <f t="shared" si="0"/>
         <v>7630</v>
       </c>
@@ -1860,7 +1923,7 @@
       <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -1869,7 +1932,7 @@
       <c r="G6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R6" s="20">
+      <c r="R6" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1887,7 +1950,7 @@
       <c r="D7" s="2">
         <v>2765</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>3383</v>
       </c>
       <c r="F7" s="2">
@@ -1896,7 +1959,7 @@
       <c r="G7" s="2">
         <v>3209</v>
       </c>
-      <c r="R7" s="20">
+      <c r="R7" s="19">
         <f t="shared" si="0"/>
         <v>6318</v>
       </c>
@@ -1914,7 +1977,7 @@
       <c r="D8" s="2">
         <v>2025</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <v>2528</v>
       </c>
       <c r="F8" s="2">
@@ -1923,7 +1986,7 @@
       <c r="G8" s="2">
         <v>3683</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8" s="19">
         <f t="shared" si="0"/>
         <v>6989</v>
       </c>
@@ -1941,7 +2004,7 @@
       <c r="D9" s="2">
         <v>6341</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <v>18320</v>
       </c>
       <c r="F9" s="2">
@@ -1950,7 +2013,7 @@
       <c r="G9" s="2">
         <v>2895</v>
       </c>
-      <c r="R9" s="20">
+      <c r="R9" s="19">
         <f t="shared" si="0"/>
         <v>12125</v>
       </c>
@@ -1968,7 +2031,7 @@
       <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="19" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1977,7 +2040,7 @@
       <c r="G10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R10" s="20">
+      <c r="R10" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1995,7 +2058,7 @@
       <c r="D11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="19" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -2004,7 +2067,7 @@
       <c r="G11" s="2">
         <v>2408</v>
       </c>
-      <c r="R11" s="20">
+      <c r="R11" s="19">
         <f t="shared" si="0"/>
         <v>2408</v>
       </c>
@@ -2022,7 +2085,7 @@
       <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -2031,7 +2094,7 @@
       <c r="G12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R12" s="20">
+      <c r="R12" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2049,7 +2112,7 @@
       <c r="D13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -2058,7 +2121,7 @@
       <c r="G13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R13" s="20">
+      <c r="R13" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2076,7 +2139,7 @@
       <c r="D14" s="2">
         <v>9949</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <v>8128</v>
       </c>
       <c r="F14" s="2">
@@ -2085,7 +2148,7 @@
       <c r="G14" s="2">
         <v>11714</v>
       </c>
-      <c r="R14" s="20">
+      <c r="R14" s="19">
         <f t="shared" si="0"/>
         <v>24317</v>
       </c>
@@ -2103,7 +2166,7 @@
       <c r="D15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="19" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -2112,7 +2175,7 @@
       <c r="G15" s="2">
         <v>49</v>
       </c>
-      <c r="R15" s="20">
+      <c r="R15" s="19">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
@@ -2130,7 +2193,7 @@
       <c r="D16" s="2">
         <v>2482</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="19">
         <v>3610</v>
       </c>
       <c r="F16" s="2">
@@ -2139,7 +2202,7 @@
       <c r="G16" s="2">
         <v>5247</v>
       </c>
-      <c r="R16" s="20">
+      <c r="R16" s="19">
         <f t="shared" si="0"/>
         <v>9871</v>
       </c>
@@ -2157,7 +2220,7 @@
       <c r="D17" s="2">
         <v>154</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="19">
         <v>139</v>
       </c>
       <c r="F17" s="2">
@@ -2166,7 +2229,7 @@
       <c r="G17" s="2">
         <v>219</v>
       </c>
-      <c r="R17" s="20">
+      <c r="R17" s="19">
         <f t="shared" si="0"/>
         <v>836</v>
       </c>
@@ -2184,7 +2247,7 @@
       <c r="D18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="19" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -2193,7 +2256,7 @@
       <c r="G18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R18" s="20">
+      <c r="R18" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2211,7 +2274,7 @@
       <c r="D19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="19" t="s">
         <v>25</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -2220,7 +2283,7 @@
       <c r="G19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R19" s="20">
+      <c r="R19" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2238,7 +2301,7 @@
       <c r="D20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="19" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -2247,7 +2310,7 @@
       <c r="G20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R20" s="20">
+      <c r="R20" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2265,7 +2328,7 @@
       <c r="D21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="19" t="s">
         <v>25</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -2274,7 +2337,7 @@
       <c r="G21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R21" s="20">
+      <c r="R21" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2292,7 +2355,7 @@
       <c r="D22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="19" t="s">
         <v>25</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -2301,7 +2364,7 @@
       <c r="G22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R22" s="20">
+      <c r="R22" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2319,7 +2382,7 @@
       <c r="D23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="19" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -2328,7 +2391,7 @@
       <c r="G23" s="2">
         <v>215</v>
       </c>
-      <c r="R23" s="20">
+      <c r="R23" s="19">
         <f t="shared" si="0"/>
         <v>215</v>
       </c>
@@ -2346,7 +2409,7 @@
       <c r="D24" s="2">
         <v>1625</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="19">
         <v>2283</v>
       </c>
       <c r="F24" s="2">
@@ -2355,7 +2418,7 @@
       <c r="G24" s="2">
         <v>1681</v>
       </c>
-      <c r="R24" s="20">
+      <c r="R24" s="19">
         <f t="shared" si="0"/>
         <v>4199</v>
       </c>
@@ -2373,7 +2436,7 @@
       <c r="D25" s="2">
         <v>493</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="19">
         <v>286</v>
       </c>
       <c r="F25" s="2">
@@ -2382,7 +2445,7 @@
       <c r="G25" s="2">
         <v>832</v>
       </c>
-      <c r="R25" s="20">
+      <c r="R25" s="19">
         <f t="shared" si="0"/>
         <v>1790</v>
       </c>
@@ -2400,7 +2463,7 @@
       <c r="D26" s="2">
         <v>1996</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="19">
         <v>8067</v>
       </c>
       <c r="F26" s="2">
@@ -2409,7 +2472,7 @@
       <c r="G26" s="2">
         <v>2080</v>
       </c>
-      <c r="R26" s="20">
+      <c r="R26" s="19">
         <f t="shared" si="0"/>
         <v>4784</v>
       </c>
@@ -2427,7 +2490,7 @@
       <c r="D27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="19" t="s">
         <v>25</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -2436,7 +2499,7 @@
       <c r="G27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R27" s="20">
+      <c r="R27" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2454,7 +2517,7 @@
       <c r="D28" s="2">
         <v>1411</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="19">
         <v>1217</v>
       </c>
       <c r="F28" s="2">
@@ -2463,7 +2526,7 @@
       <c r="G28" s="2">
         <v>1714</v>
       </c>
-      <c r="R28" s="20">
+      <c r="R28" s="19">
         <f t="shared" si="0"/>
         <v>3166</v>
       </c>
@@ -2481,7 +2544,7 @@
       <c r="D29" s="2">
         <v>2838</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="19">
         <v>4841</v>
       </c>
       <c r="F29" s="2">
@@ -2490,7 +2553,7 @@
       <c r="G29" s="2">
         <v>5496</v>
       </c>
-      <c r="R29" s="20">
+      <c r="R29" s="19">
         <f t="shared" si="0"/>
         <v>9130</v>
       </c>
@@ -2508,7 +2571,7 @@
       <c r="D30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="19" t="s">
         <v>25</v>
       </c>
       <c r="F30" s="2">
@@ -2517,7 +2580,7 @@
       <c r="G30" s="2">
         <v>1886</v>
       </c>
-      <c r="R30" s="20">
+      <c r="R30" s="19">
         <f t="shared" si="0"/>
         <v>2291</v>
       </c>
@@ -2535,7 +2598,7 @@
       <c r="D31" s="2">
         <v>2998</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="19">
         <v>2715</v>
       </c>
       <c r="F31" s="2">
@@ -2544,7 +2607,7 @@
       <c r="G31" s="2">
         <v>1389</v>
       </c>
-      <c r="R31" s="20">
+      <c r="R31" s="19">
         <f t="shared" si="0"/>
         <v>4039</v>
       </c>
@@ -2562,7 +2625,7 @@
       <c r="D32" s="2">
         <v>328</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="19">
         <v>286</v>
       </c>
       <c r="F32" s="2">
@@ -2571,7 +2634,7 @@
       <c r="G32" s="2">
         <v>550</v>
       </c>
-      <c r="R32" s="20">
+      <c r="R32" s="19">
         <f t="shared" si="0"/>
         <v>906</v>
       </c>
@@ -2589,7 +2652,7 @@
       <c r="D33" s="2">
         <v>1867</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="19">
         <v>2643</v>
       </c>
       <c r="F33" s="2">
@@ -2598,7 +2661,7 @@
       <c r="G33" s="2">
         <v>2967</v>
       </c>
-      <c r="R33" s="20">
+      <c r="R33" s="19">
         <f t="shared" si="0"/>
         <v>5024</v>
       </c>
@@ -2616,7 +2679,7 @@
       <c r="D34" s="2">
         <v>3912</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="19">
         <v>5361</v>
       </c>
       <c r="F34" s="2">
@@ -2625,7 +2688,7 @@
       <c r="G34" s="2">
         <v>5697</v>
       </c>
-      <c r="R34" s="20">
+      <c r="R34" s="19">
         <f t="shared" si="0"/>
         <v>10996</v>
       </c>
@@ -2643,7 +2706,7 @@
       <c r="D35" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="19" t="s">
         <v>25</v>
       </c>
       <c r="F35" s="2" t="s">
@@ -2652,7 +2715,7 @@
       <c r="G35" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R35" s="20">
+      <c r="R35" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2670,7 +2733,7 @@
       <c r="D36" s="2">
         <v>1650</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="19">
         <v>1776</v>
       </c>
       <c r="F36" s="2">
@@ -2679,7 +2742,7 @@
       <c r="G36" s="2">
         <v>2255</v>
       </c>
-      <c r="R36" s="20">
+      <c r="R36" s="19">
         <f t="shared" si="0"/>
         <v>4609</v>
       </c>
@@ -2697,7 +2760,7 @@
       <c r="D37" s="2">
         <v>4138</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="19">
         <v>5383</v>
       </c>
       <c r="F37" s="2">
@@ -2706,7 +2769,7 @@
       <c r="G37" s="2">
         <v>2704</v>
       </c>
-      <c r="R37" s="20">
+      <c r="R37" s="19">
         <f t="shared" si="0"/>
         <v>6573</v>
       </c>
@@ -2724,7 +2787,7 @@
       <c r="D38" s="2">
         <v>3547</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="19">
         <v>3811</v>
       </c>
       <c r="F38" s="2">
@@ -2733,7 +2796,7 @@
       <c r="G38" s="2">
         <v>9296</v>
       </c>
-      <c r="R38" s="20">
+      <c r="R38" s="19">
         <f t="shared" si="0"/>
         <v>31413</v>
       </c>
@@ -2751,7 +2814,7 @@
       <c r="D39" s="2">
         <v>2952</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E39" s="19">
         <v>1808</v>
       </c>
       <c r="F39" s="2">
@@ -2760,7 +2823,7 @@
       <c r="G39" s="2">
         <v>7568</v>
       </c>
-      <c r="R39" s="20">
+      <c r="R39" s="19">
         <f t="shared" si="0"/>
         <v>30311</v>
       </c>
@@ -2769,7 +2832,7 @@
       <c r="A40" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="23" t="s">
         <v>71</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -2787,7 +2850,7 @@
       <c r="G40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R40" s="23">
+      <c r="R40" s="22">
         <f t="shared" ref="R40:R42" si="1">SUM(F40:Q40)</f>
         <v>0</v>
       </c>
@@ -2796,7 +2859,7 @@
       <c r="A41" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="23" t="s">
         <v>72</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -2814,7 +2877,7 @@
       <c r="G41" t="s">
         <v>25</v>
       </c>
-      <c r="R41" s="23">
+      <c r="R41" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2823,7 +2886,7 @@
       <c r="A42" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="23" t="s">
         <v>73</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -2841,7 +2904,7 @@
       <c r="G42" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R42" s="23">
+      <c r="R42" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2850,7 +2913,7 @@
       <c r="A43" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -2868,7 +2931,7 @@
       <c r="G43" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R43" s="23">
+      <c r="R43" s="22">
         <f>SUM(F43:Q43)</f>
         <v>0</v>
       </c>

--- a/dashboard.xlsx
+++ b/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GamErick\Desktop\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23EF293-9FD7-42E4-A9A4-94AFD203BC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F043A6B-D746-4C06-890A-F9B765E65F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="75">
   <si>
     <t>JANEIRO</t>
   </si>
@@ -1315,7 +1315,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1629,11 +1629,11 @@
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
+      <c r="D8" s="2">
+        <v>1932</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2024</v>
       </c>
       <c r="F8" s="2">
         <v>9500</v>
@@ -1641,7 +1641,9 @@
       <c r="G8" s="12">
         <v>8128</v>
       </c>
-      <c r="H8" s="26"/>
+      <c r="H8" s="26">
+        <v>3166</v>
+      </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
@@ -1653,7 +1655,7 @@
       <c r="Q8" s="11"/>
       <c r="R8" s="14">
         <f t="shared" si="0"/>
-        <v>17628</v>
+        <v>20794</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">

--- a/dashboard.xlsx
+++ b/dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GamErick\Desktop\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F043A6B-D746-4C06-890A-F9B765E65F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC296479-B028-45D2-AB57-775A02A4261A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Saude" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="76">
   <si>
     <t>JANEIRO</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>LABORATÓRIO ARARUAMA</t>
+  </si>
+  <si>
+    <t>jan/25</t>
   </si>
 </sst>
 </file>
@@ -431,7 +434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -486,18 +489,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="37">
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -936,44 +945,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela134" displayName="Tabela134" ref="A1:R10" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela134" displayName="Tabela134" ref="A1:R10" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34" totalsRowBorderDxfId="33">
   <autoFilter ref="A1:R10" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Impressora" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Localidade" dataDxfId="30"/>
-    <tableColumn id="18" xr3:uid="{EDDF4E36-8316-49A5-89CB-8904AFF1A691}" name="out/24" dataDxfId="29" dataCellStyle="Vírgula"/>
-    <tableColumn id="17" xr3:uid="{C28FEAB0-417B-407D-B30D-07D7013E82D7}" name="nov/24" dataDxfId="28" dataCellStyle="Vírgula"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="dez/24" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="JANEIRO" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="FEVEREIRO" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="MARÇO" dataDxfId="24" dataCellStyle="Vírgula"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="ABRIL" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="MAIO" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="JUNHO" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="JULHO" dataDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="AGOSTO" dataDxfId="19"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="SETEMBRO" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="OUTUBRO" dataDxfId="17"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="NOVEMBRO" dataDxfId="16"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="DEZEMBRO" dataDxfId="15"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Total Ano" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Impressora" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Localidade" dataDxfId="31"/>
+    <tableColumn id="18" xr3:uid="{EDDF4E36-8316-49A5-89CB-8904AFF1A691}" name="out/24" dataDxfId="30" dataCellStyle="Vírgula"/>
+    <tableColumn id="17" xr3:uid="{C28FEAB0-417B-407D-B30D-07D7013E82D7}" name="nov/24" dataDxfId="29" dataCellStyle="Vírgula"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="dez/24" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="jan/25" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="FEVEREIRO" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="MARÇO" dataDxfId="25" dataCellStyle="Vírgula"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="ABRIL" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="MAIO" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="JUNHO" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="JULHO" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="AGOSTO" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="SETEMBRO" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="OUTUBRO" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="NOVEMBRO" dataDxfId="17"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="DEZEMBRO" dataDxfId="16"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Total Ano" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela13" displayName="Tabela13" ref="A1:R43" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela13" displayName="Tabela13" ref="A1:R43" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="A1:R43" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Impressora" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Localidade" dataDxfId="6"/>
-    <tableColumn id="18" xr3:uid="{9CA8177F-42AE-45FA-95A5-DB2BE3F958B2}" name="out/24" dataDxfId="5" dataCellStyle="Vírgula"/>
-    <tableColumn id="17" xr3:uid="{0AFF1354-2AFA-451F-AB54-0ADBEA9D8CDC}" name="nov/24" dataDxfId="4" dataCellStyle="Vírgula"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="dez/24" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="JANEIRO" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Impressora" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Localidade" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{9CA8177F-42AE-45FA-95A5-DB2BE3F958B2}" name="out/24" dataDxfId="6" dataCellStyle="Vírgula"/>
+    <tableColumn id="17" xr3:uid="{0AFF1354-2AFA-451F-AB54-0ADBEA9D8CDC}" name="nov/24" dataDxfId="5" dataCellStyle="Vírgula"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="dez/24" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="JANEIRO" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="FEVEREIRO" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="MARÇO"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="MARÇO" dataDxfId="0" dataCellStyle="Vírgula"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="ABRIL"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="MAIO"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="JUNHO"/>
@@ -983,7 +992,7 @@
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="OUTUBRO"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="NOVEMBRO"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="DEZEMBRO"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Total Ano" dataDxfId="0">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Total Ano" dataDxfId="2">
       <calculatedColumnFormula>SUM(F2:Q2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1314,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1325,7 +1334,7 @@
     <col min="3" max="3" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="8.109375" bestFit="1" customWidth="1"/>
@@ -1355,8 +1364,8 @@
       <c r="E1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>0</v>
+      <c r="F1" s="30" t="s">
+        <v>75</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>1</v>
@@ -1659,7 +1668,9 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="B9" s="11" t="s">
         <v>74</v>
       </c>
@@ -1724,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1737,7 +1748,8 @@
     <col min="5" max="5" width="11.77734375" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.77734375" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
@@ -1826,6 +1838,7 @@
       <c r="G2" s="2">
         <v>4448</v>
       </c>
+      <c r="H2" s="2"/>
       <c r="R2" s="19">
         <f t="shared" ref="R2:R39" si="0">SUM(F2:Q2)</f>
         <v>10496</v>
@@ -1853,6 +1866,7 @@
       <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="H3" s="2"/>
       <c r="R3" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1880,6 +1894,7 @@
       <c r="G4" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="H4" s="2"/>
       <c r="R4" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1907,6 +1922,7 @@
       <c r="G5" s="2">
         <v>3903</v>
       </c>
+      <c r="H5" s="2"/>
       <c r="R5" s="19">
         <f t="shared" si="0"/>
         <v>7630</v>
@@ -1934,6 +1950,7 @@
       <c r="G6" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="H6" s="2"/>
       <c r="R6" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1961,6 +1978,7 @@
       <c r="G7" s="2">
         <v>3209</v>
       </c>
+      <c r="H7" s="2"/>
       <c r="R7" s="19">
         <f t="shared" si="0"/>
         <v>6318</v>
@@ -1988,6 +2006,7 @@
       <c r="G8" s="2">
         <v>3683</v>
       </c>
+      <c r="H8" s="2"/>
       <c r="R8" s="19">
         <f t="shared" si="0"/>
         <v>6989</v>
@@ -2015,6 +2034,7 @@
       <c r="G9" s="2">
         <v>2895</v>
       </c>
+      <c r="H9" s="2"/>
       <c r="R9" s="19">
         <f t="shared" si="0"/>
         <v>12125</v>
@@ -2042,6 +2062,7 @@
       <c r="G10" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="H10" s="2"/>
       <c r="R10" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2069,6 +2090,7 @@
       <c r="G11" s="2">
         <v>2408</v>
       </c>
+      <c r="H11" s="2"/>
       <c r="R11" s="19">
         <f t="shared" si="0"/>
         <v>2408</v>
@@ -2096,6 +2118,7 @@
       <c r="G12" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="H12" s="2"/>
       <c r="R12" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2123,6 +2146,7 @@
       <c r="G13" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="H13" s="2"/>
       <c r="R13" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2150,9 +2174,12 @@
       <c r="G14" s="2">
         <v>11714</v>
       </c>
+      <c r="H14" s="2">
+        <v>10980</v>
+      </c>
       <c r="R14" s="19">
         <f t="shared" si="0"/>
-        <v>24317</v>
+        <v>35297</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
@@ -2177,6 +2204,7 @@
       <c r="G15" s="2">
         <v>49</v>
       </c>
+      <c r="H15" s="2"/>
       <c r="R15" s="19">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2204,6 +2232,7 @@
       <c r="G16" s="2">
         <v>5247</v>
       </c>
+      <c r="H16" s="2"/>
       <c r="R16" s="19">
         <f t="shared" si="0"/>
         <v>9871</v>
@@ -2231,6 +2260,7 @@
       <c r="G17" s="2">
         <v>219</v>
       </c>
+      <c r="H17" s="2"/>
       <c r="R17" s="19">
         <f t="shared" si="0"/>
         <v>836</v>
@@ -2258,6 +2288,7 @@
       <c r="G18" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="H18" s="2"/>
       <c r="R18" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2285,6 +2316,7 @@
       <c r="G19" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="H19" s="2"/>
       <c r="R19" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2312,6 +2344,7 @@
       <c r="G20" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="H20" s="2"/>
       <c r="R20" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2339,6 +2372,7 @@
       <c r="G21" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="H21" s="2"/>
       <c r="R21" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2366,6 +2400,7 @@
       <c r="G22" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="H22" s="2"/>
       <c r="R22" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2393,6 +2428,7 @@
       <c r="G23" s="2">
         <v>215</v>
       </c>
+      <c r="H23" s="2"/>
       <c r="R23" s="19">
         <f t="shared" si="0"/>
         <v>215</v>
@@ -2420,6 +2456,7 @@
       <c r="G24" s="2">
         <v>1681</v>
       </c>
+      <c r="H24" s="2"/>
       <c r="R24" s="19">
         <f t="shared" si="0"/>
         <v>4199</v>
@@ -2447,6 +2484,7 @@
       <c r="G25" s="2">
         <v>832</v>
       </c>
+      <c r="H25" s="2"/>
       <c r="R25" s="19">
         <f t="shared" si="0"/>
         <v>1790</v>
@@ -2474,6 +2512,7 @@
       <c r="G26" s="2">
         <v>2080</v>
       </c>
+      <c r="H26" s="2"/>
       <c r="R26" s="19">
         <f t="shared" si="0"/>
         <v>4784</v>
@@ -2501,6 +2540,7 @@
       <c r="G27" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="H27" s="2"/>
       <c r="R27" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2528,6 +2568,7 @@
       <c r="G28" s="2">
         <v>1714</v>
       </c>
+      <c r="H28" s="2"/>
       <c r="R28" s="19">
         <f t="shared" si="0"/>
         <v>3166</v>
@@ -2555,6 +2596,7 @@
       <c r="G29" s="2">
         <v>5496</v>
       </c>
+      <c r="H29" s="2"/>
       <c r="R29" s="19">
         <f t="shared" si="0"/>
         <v>9130</v>
@@ -2582,6 +2624,7 @@
       <c r="G30" s="2">
         <v>1886</v>
       </c>
+      <c r="H30" s="2"/>
       <c r="R30" s="19">
         <f t="shared" si="0"/>
         <v>2291</v>
@@ -2609,6 +2652,7 @@
       <c r="G31" s="2">
         <v>1389</v>
       </c>
+      <c r="H31" s="2"/>
       <c r="R31" s="19">
         <f t="shared" si="0"/>
         <v>4039</v>
@@ -2636,6 +2680,7 @@
       <c r="G32" s="2">
         <v>550</v>
       </c>
+      <c r="H32" s="2"/>
       <c r="R32" s="19">
         <f t="shared" si="0"/>
         <v>906</v>
@@ -2663,6 +2708,7 @@
       <c r="G33" s="2">
         <v>2967</v>
       </c>
+      <c r="H33" s="2"/>
       <c r="R33" s="19">
         <f t="shared" si="0"/>
         <v>5024</v>
@@ -2690,6 +2736,7 @@
       <c r="G34" s="2">
         <v>5697</v>
       </c>
+      <c r="H34" s="2"/>
       <c r="R34" s="19">
         <f t="shared" si="0"/>
         <v>10996</v>
@@ -2717,6 +2764,7 @@
       <c r="G35" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="H35" s="2"/>
       <c r="R35" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2744,6 +2792,7 @@
       <c r="G36" s="2">
         <v>2255</v>
       </c>
+      <c r="H36" s="2"/>
       <c r="R36" s="19">
         <f t="shared" si="0"/>
         <v>4609</v>
@@ -2771,6 +2820,7 @@
       <c r="G37" s="2">
         <v>2704</v>
       </c>
+      <c r="H37" s="2"/>
       <c r="R37" s="19">
         <f t="shared" si="0"/>
         <v>6573</v>
@@ -2798,9 +2848,12 @@
       <c r="G38" s="2">
         <v>9296</v>
       </c>
+      <c r="H38" s="2">
+        <v>3382</v>
+      </c>
       <c r="R38" s="19">
         <f t="shared" si="0"/>
-        <v>31413</v>
+        <v>34795</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
@@ -2825,6 +2878,7 @@
       <c r="G39" s="2">
         <v>7568</v>
       </c>
+      <c r="H39" s="2"/>
       <c r="R39" s="19">
         <f t="shared" si="0"/>
         <v>30311</v>
@@ -2852,6 +2906,7 @@
       <c r="G40" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="H40" s="2"/>
       <c r="R40" s="22">
         <f t="shared" ref="R40:R42" si="1">SUM(F40:Q40)</f>
         <v>0</v>
@@ -2873,12 +2928,13 @@
       <c r="E41" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" t="s">
-        <v>25</v>
-      </c>
+      <c r="F41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="2"/>
       <c r="R41" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2906,6 +2962,7 @@
       <c r="G42" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="H42" s="2"/>
       <c r="R42" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2933,6 +2990,7 @@
       <c r="G43" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="H43" s="2"/>
       <c r="R43" s="22">
         <f>SUM(F43:Q43)</f>
         <v>0</v>
@@ -2940,10 +2998,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B40:B42">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"MANUTENÇÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"DEPOSITO SOLAGOS"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/dashboard.xlsx
+++ b/dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GamErick\Desktop\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC296479-B028-45D2-AB57-775A02A4261A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442B7A19-CEC9-4689-B762-907ED468E8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Saude" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="76">
   <si>
     <t>JANEIRO</t>
   </si>
@@ -503,10 +503,10 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -981,8 +981,8 @@
     <tableColumn id="17" xr3:uid="{0AFF1354-2AFA-451F-AB54-0ADBEA9D8CDC}" name="nov/24" dataDxfId="5" dataCellStyle="Vírgula"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="dez/24" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="JANEIRO" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="FEVEREIRO" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="MARÇO" dataDxfId="0" dataCellStyle="Vírgula"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="FEVEREIRO" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="MARÇO" dataDxfId="1" dataCellStyle="Vírgula"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="ABRIL"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="MAIO"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="JUNHO"/>
@@ -992,7 +992,7 @@
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="OUTUBRO"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="NOVEMBRO"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="DEZEMBRO"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Total Ano" dataDxfId="2">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Total Ano" dataDxfId="0">
       <calculatedColumnFormula>SUM(F2:Q2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1323,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1426,7 +1426,9 @@
       <c r="G2" s="4">
         <v>7115</v>
       </c>
-      <c r="H2" s="25"/>
+      <c r="H2" s="25">
+        <v>7894</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -1438,7 +1440,7 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="14">
         <f>SUM(F2:Q2)</f>
-        <v>16501</v>
+        <v>24395</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -1463,7 +1465,9 @@
       <c r="G3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="25"/>
+      <c r="H3" s="25">
+        <v>510</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1475,7 +1479,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="14">
         <f t="shared" ref="R3:R8" si="0">SUM(F3:Q3)</f>
-        <v>0</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -1500,7 +1504,9 @@
       <c r="G4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="25"/>
+      <c r="H4" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1537,7 +1543,9 @@
       <c r="G5" s="4">
         <v>12602</v>
       </c>
-      <c r="H5" s="25"/>
+      <c r="H5" s="25">
+        <v>8097</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1549,7 +1557,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="14">
         <f t="shared" si="0"/>
-        <v>20518</v>
+        <v>28615</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -1575,7 +1583,7 @@
         <v>9532</v>
       </c>
       <c r="H6" s="25">
-        <v>2911</v>
+        <v>7740</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1588,7 +1596,7 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="14">
         <f t="shared" si="0"/>
-        <v>21317</v>
+        <v>26146</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -1613,7 +1621,9 @@
       <c r="G7" s="4">
         <v>2868</v>
       </c>
-      <c r="H7" s="25"/>
+      <c r="H7" s="25">
+        <v>4080</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1625,7 +1635,7 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="14">
         <f t="shared" si="0"/>
-        <v>5631</v>
+        <v>9711</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -1651,7 +1661,7 @@
         <v>8128</v>
       </c>
       <c r="H8" s="26">
-        <v>3166</v>
+        <v>6273</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
@@ -1664,7 +1674,7 @@
       <c r="Q8" s="11"/>
       <c r="R8" s="14">
         <f t="shared" si="0"/>
-        <v>20794</v>
+        <v>23901</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -1689,7 +1699,9 @@
       <c r="G9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="26"/>
+      <c r="H9" s="26">
+        <v>920</v>
+      </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
@@ -1735,7 +1747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
